--- a/UnitTestProject1/excel/sample.xlsx
+++ b/UnitTestProject1/excel/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\GIT\ut_data_validator\UnitTestProject1\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2329C6DC-FDB6-406C-8B71-1AB311A8D5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37988489-3A50-482F-99BE-0274E2393D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2D9103BD-0A88-438A-AF00-61622169253C}"/>
   </bookViews>
@@ -34753,7 +34753,7 @@
   <dimension ref="A1:R587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
